--- a/SOM/Documents/SOM/SOM Progress.xlsx
+++ b/SOM/Documents/SOM/SOM Progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanrise2015\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\SOM\Documents\SOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -456,9 +456,13 @@
   <autoFilter ref="A1:F53">
     <filterColumn colId="1">
       <filters>
-        <filter val="Completed"/>
         <filter val="New"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
@@ -739,7 +743,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -788,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -805,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -822,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -839,12 +843,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -856,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -870,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -898,7 +902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -915,12 +919,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -942,16 +946,19 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -963,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -980,12 +987,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -997,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1021,16 +1028,19 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1042,7 +1052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1069,11 +1079,14 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1090,7 +1103,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1138,7 +1151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1155,12 +1168,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1175,7 +1188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1189,12 +1202,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1209,7 +1222,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1223,7 +1236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1247,11 +1260,14 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1279,7 +1295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1293,7 +1309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -1321,7 +1337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1345,11 +1361,14 @@
       <c r="C38" t="s">
         <v>13</v>
       </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1373,11 +1392,14 @@
       <c r="C40" t="s">
         <v>13</v>
       </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -1391,7 +1413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -1425,7 +1447,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -1442,7 +1464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -1456,7 +1478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -1480,11 +1502,14 @@
       <c r="C47" t="s">
         <v>13</v>
       </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -1508,6 +1533,9 @@
       <c r="C49" t="s">
         <v>13</v>
       </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>109</v>
       </c>
@@ -1522,6 +1550,9 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>111</v>
       </c>
@@ -1539,6 +1570,9 @@
       <c r="C51" t="s">
         <v>13</v>
       </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>113</v>
       </c>
@@ -1546,7 +1580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -1563,7 +1597,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>117</v>
       </c>

--- a/SOM/Documents/SOM/SOM Progress.xlsx
+++ b/SOM/Documents/SOM/SOM Progress.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>Use Case</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,13 +401,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -419,16 +431,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -454,15 +472,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F53" totalsRowShown="0">
   <autoFilter ref="A1:F53">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
-        <filter val="New"/>
+        <filter val="2"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
@@ -743,7 +756,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -800,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -817,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -834,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -910,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -927,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -941,15 +954,15 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1023,15 +1036,15 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1042,8 +1055,8 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1074,10 +1087,10 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1159,12 +1172,12 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1176,12 +1189,12 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1210,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1255,7 +1268,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1387,10 +1400,10 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1545,19 +1558,16 @@
         <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,19 +1575,16 @@
         <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
